--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\Desktop\Guy\Projects\Rentalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBA370F-15D1-4456-ABCF-CB51EBAE512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C03CC9-BAF5-42FD-AEA2-BA1A041C2187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Guy Ben-Yosef</author>
+  </authors>
+  <commentList>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{50201AB7-339D-400D-BBBF-96F326AF2569}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t>Guy Ben-Yosef:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t xml:space="preserve">
+Approximate location</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0" shapeId="0" xr:uid="{9FC8C02B-330F-4EEB-96C3-ACB11B359044}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t>Guy Ben-Yosef:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t xml:space="preserve">
+The post was deleted shortly after its publication</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>https://www.facebook.com/groups/914953618536575/posts/6742148269150385/</t>
   </si>
@@ -267,13 +325,91 @@
   </si>
   <si>
     <t>32.10371177512551, 34.79496101368838</t>
+  </si>
+  <si>
+    <t>הברון הירש</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/914953618536575</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/914953618536575/posts/6803012999730578/</t>
+  </si>
+  <si>
+    <t>ממ"ד, שתי מרפסות שמש, מרפסת שירות, מחסן, שני חדרי שירותים,  בניין אחרי תמ"א</t>
+  </si>
+  <si>
+    <t>מזגן מרכזי, דוד שמש, מטבח באיבזור מלא</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/914953618536575/posts/6784112291620649/</t>
+  </si>
+  <si>
+    <t>הררי</t>
+  </si>
+  <si>
+    <t>32.1045314022082, 34.793644735471</t>
+  </si>
+  <si>
+    <t>32.117306173214786, 34.795669308072185</t>
+  </si>
+  <si>
+    <t>התנאים</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/914953618536575/posts/6783604201671458/</t>
+  </si>
+  <si>
+    <t>מקרר, תנור, כיריים, ארון קיר ושולחן אוכל</t>
+  </si>
+  <si>
+    <t>32.10642499564208, 34.79768019954401</t>
+  </si>
+  <si>
+    <t>ברודצקי</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/914953618536575/posts/6800563143308897/</t>
+  </si>
+  <si>
+    <t>כפר יונה</t>
+  </si>
+  <si>
+    <t>חוזה לחצי שנה בלבד</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/914953618536575/posts/6776261505739061/</t>
+  </si>
+  <si>
+    <t>גינה, מחסן</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ofir.patury/posts/pfbid02WhKcydqjeY19DKwg8LdRLXWZsL7dqFim5nWRhoyaSkqP1NUnNp2z9d1GAn8JNVb3l</t>
+  </si>
+  <si>
+    <t>רידינג</t>
+  </si>
+  <si>
+    <t>יציאה מהסלון לגינה, מחסן</t>
+  </si>
+  <si>
+    <t>מכונת כביסה, מדיח כלים, תנור אפיה, ארון בגדים גדול, ספה</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/914953618536575/posts/6791667067531838/</t>
+  </si>
+  <si>
+    <t>32.10550924465976, 34.79450272878687</t>
+  </si>
+  <si>
+    <t>32.10944795243984, 34.79962469863185</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +438,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="177"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,6 +525,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -669,11 +827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,9 +2273,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="A23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="e">
         <f>NA()</f>
@@ -2127,33 +2284,29 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>75</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7000</v>
       </c>
       <c r="K23" s="1" t="e">
         <f>NA()</f>
@@ -2163,17 +2316,15 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="M23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="M23" s="2">
+        <v>45146</v>
+      </c>
+      <c r="N23" s="2">
+        <v>45115</v>
+      </c>
+      <c r="O23" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="P23" s="10" t="e">
         <f>NA()</f>
@@ -2183,47 +2334,600 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="R23" s="11" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="R23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>96</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8300</v>
+      </c>
+      <c r="K24" s="1">
+        <v>300</v>
+      </c>
+      <c r="L24" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="2">
+        <v>45153</v>
+      </c>
+      <c r="N24" s="2">
+        <v>45127</v>
+      </c>
+      <c r="O24" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7500</v>
+      </c>
+      <c r="K25" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="2">
+        <v>45139</v>
+      </c>
+      <c r="N25" s="2">
+        <v>45121</v>
+      </c>
+      <c r="O25" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="A26" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B26" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5900</v>
+      </c>
+      <c r="K26" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="2">
+        <v>45139</v>
+      </c>
+      <c r="N26" s="2">
+        <v>45121</v>
+      </c>
+      <c r="O26" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="A27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4900</v>
+      </c>
+      <c r="K27" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="2">
+        <v>45170</v>
+      </c>
+      <c r="N27" s="2">
+        <v>45119</v>
+      </c>
+      <c r="O27" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5400</v>
+      </c>
+      <c r="K28" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="2">
+        <v>45231</v>
+      </c>
+      <c r="N28" s="2">
+        <v>45126</v>
+      </c>
+      <c r="O28" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q28" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="12"/>
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>70</v>
+      </c>
+      <c r="J29" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K29" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="2">
+        <v>45119</v>
+      </c>
+      <c r="O29" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q29" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5500</v>
+      </c>
+      <c r="K30" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L30" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="2">
+        <v>45139</v>
+      </c>
+      <c r="N30" s="2">
+        <v>45118</v>
+      </c>
+      <c r="O30" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>50</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6700</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="2">
+        <v>45125</v>
+      </c>
+      <c r="N31" s="2">
+        <v>45124</v>
+      </c>
+      <c r="O31" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C32" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" s="1">
+        <v>6400</v>
+      </c>
+      <c r="K32" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L32" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M32" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N32" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O32" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" s="11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="33" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P33" s="10"/>
@@ -3067,7 +3771,7 @@
       <formula>ISNA(A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate data" sqref="R1:R8 R10:R1048576" xr:uid="{73B9865F-DAF2-4BD5-AA3F-3790530A888C}">
       <formula1>COUNTIF(R:R,R1)&lt;2</formula1>
     </dataValidation>
@@ -3075,7 +3779,17 @@
       <formula1>COUNTIF(R:R,R9)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="R24" r:id="rId1" xr:uid="{77CFB736-F876-4EB5-BCB7-A73ADC1046AA}"/>
+    <hyperlink ref="R25" r:id="rId2" xr:uid="{3A5B921E-5159-4971-9BC5-C7325B786749}"/>
+    <hyperlink ref="R26" r:id="rId3" xr:uid="{B4860738-0302-496A-8667-D99DC33FF5D8}"/>
+    <hyperlink ref="R28" r:id="rId4" xr:uid="{027B7A2A-7DCF-4BFA-880B-3271FE90D553}"/>
+    <hyperlink ref="R29" r:id="rId5" xr:uid="{4CE60A31-B2E7-4F3B-B566-4A3FD29AAF49}"/>
+    <hyperlink ref="R30" r:id="rId6" xr:uid="{8CF36B1B-708C-4B0B-AEB1-E19F0874318E}"/>
+    <hyperlink ref="R31" r:id="rId7" xr:uid="{3F0E7440-A4DC-46D1-9AB0-C4B6B8A96346}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\Desktop\Guy\Projects\Rentalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C03CC9-BAF5-42FD-AEA2-BA1A041C2187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0447ACE-F424-4B18-B904-C782AD82FEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,12 +89,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="R32" authorId="0" shapeId="0" xr:uid="{9B039030-CAD8-42D0-93B7-037884315E0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t>Guy Ben-Yosef:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="177"/>
+          </rPr>
+          <t xml:space="preserve">
+The post was deleted shortly after its publication</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>https://www.facebook.com/groups/914953618536575/posts/6742148269150385/</t>
   </si>
@@ -403,6 +427,12 @@
   </si>
   <si>
     <t>32.10944795243984, 34.79962469863185</t>
+  </si>
+  <si>
+    <t>https://github.com/theguyben/Rentalytics/blob/main/posts_screenshots/Meital_Marciano.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/theguyben/Rentalytics/blob/main/posts_screenshots/Hedia_Leshem.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -830,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,9 +2625,8 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="R27" s="11" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="R27" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2924,9 +2953,8 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="R32" s="11" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="R32" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="16:17" x14ac:dyDescent="0.25">
@@ -3787,9 +3815,11 @@
     <hyperlink ref="R29" r:id="rId5" xr:uid="{4CE60A31-B2E7-4F3B-B566-4A3FD29AAF49}"/>
     <hyperlink ref="R30" r:id="rId6" xr:uid="{8CF36B1B-708C-4B0B-AEB1-E19F0874318E}"/>
     <hyperlink ref="R31" r:id="rId7" xr:uid="{3F0E7440-A4DC-46D1-9AB0-C4B6B8A96346}"/>
+    <hyperlink ref="R32" r:id="rId8" xr:uid="{7F4098A2-59E9-4429-BDCA-77DA6BE4A37B}"/>
+    <hyperlink ref="R27" r:id="rId9" xr:uid="{A5253A2F-AD8E-43DE-A539-E5FA4433388D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\Desktop\Guy\Projects\Rentalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0447ACE-F424-4B18-B904-C782AD82FEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79B73C4-56A6-4E31-8B3E-AD91008E5740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>https://www.facebook.com/groups/914953618536575/posts/6742148269150385/</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>https://github.com/theguyben/Rentalytics/blob/main/posts_screenshots/Hedia_Leshem.png?raw=true</t>
+  </si>
+  <si>
+    <t>(שרן)</t>
   </si>
 </sst>
 </file>
@@ -860,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,9 +2486,8 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="10" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="P25" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="Q25" s="10" t="e">
         <f>NA()</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\Desktop\Guy\Projects\Rentalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79B73C4-56A6-4E31-8B3E-AD91008E5740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10415EB2-C683-44B7-A93F-97F94CA06523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>https://www.facebook.com/groups/914953618536575/posts/6742148269150385/</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>https://github.com/theguyben/Rentalytics/blob/main/posts_screenshots/Hedia_Leshem.png?raw=true</t>
-  </si>
-  <si>
-    <t>(שרן)</t>
   </si>
 </sst>
 </file>
@@ -2445,21 +2442,20 @@
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H25" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="I25" s="1" t="e">
         <f>NA()</f>
@@ -2482,12 +2478,13 @@
       <c r="N25" s="2">
         <v>45121</v>
       </c>
-      <c r="O25" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>105</v>
+      <c r="O25" s="1" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="Q25" s="10" t="e">
         <f>NA()</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\Desktop\Guy\Projects\Rentalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10415EB2-C683-44B7-A93F-97F94CA06523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44275ED9-C469-4C57-B753-3119981CC7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
